--- a/spicemaster/Book1.xlsx
+++ b/spicemaster/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="48">
   <si>
     <t>https://spicemaster.se/kryddor/</t>
   </si>
@@ -42,6 +42,132 @@
   </si>
   <si>
     <t>https://spicemaster.se/kvarnar/</t>
+  </si>
+  <si>
+    <t>KRYDDOR</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/29-basilika/</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/28-chiliflingor-supreme/</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/17-gurkmeja/</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/16-ingefara/</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/23-ceylonkanel/</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/56-lokflingor/</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/22-oregano/</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/15-paprika/</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/30-svartpeppar-finmalen/</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/32-svartpeppar-grovmalen/</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/21-timjan/</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/27-vitfloksflingor/</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/26-garam-masala/</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/24-kebab-shawarma/</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/19-morning-wellness/</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/20-curry-madras/</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/1-ortsalt-original/</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/2-ortsalt-med-jod/</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/3-ortsalt-toscana/</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/4-ortsalt-chili-herbs/</t>
+  </si>
+  <si>
+    <t>ÖRTSALT</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/56-finmalet-havssalt/</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/57-kvarnsalt/</t>
+  </si>
+  <si>
+    <t>HAVSSALT</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/spicy-magic-ramen-noodles-med-havssalt-eko/</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/12-taco-original/</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/14-panang-gai/</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/8-taco-original-sea-salt/</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/10-2/</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/9-2/</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/11-fajita-original-sea-salt/</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/noodle-master-ramen-noodles-med-havssalt-eko/</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/yummy-noodles-ramen-noodles-med-havssalt-eko/</t>
+  </si>
+  <si>
+    <t>KRYDDMIXER</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/6-cajun-grill/</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/7-chili-pepper/</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/55-garlic-herbs/</t>
+  </si>
+  <si>
+    <t>GRILL &amp; BBQ</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/35-kvarn-havssalt-hela-korn/</t>
+  </si>
+  <si>
+    <t>https://spicemaster.se/33-kvarn-svartpeppar-hela-korn/</t>
+  </si>
+  <si>
+    <t>SALT- OCH PEPPARKVARNAR</t>
   </si>
 </sst>
 </file>
@@ -359,45 +485,497 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
